--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV131_FixedVerBatal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV131_FixedVerBatal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AE522-160F-44ED-A9A4-0D7234D1F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C4C58-5B8A-417C-A372-3864CB581A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV131-001" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>RUN</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Pimpinan Kelompok Investasi</t>
   </si>
   <si>
-    <t>Pembatalan</t>
-  </si>
-  <si>
     <t>DPLKINV131-001</t>
   </si>
   <si>
@@ -119,35 +116,35 @@
     <t>INV.FIX.BEJ.011 PEMBATALAN DISETUJUI</t>
   </si>
   <si>
-    <t>DTOBL202200001</t>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>Verifikasi</t>
+  </si>
+  <si>
+    <t>DTOBL202200003</t>
   </si>
   <si>
     <t>Username : 33372;
 Password : bni1234;
 Role : 18 - Pimpinan Kelompok Investasi;
-Ticket ID : DTOBL202200001;
-Status Verifikasi : 1 : Setuju;
-Keterangan Verifikasi : INV.FIX.BEJ.011 PEMBATALAN DISETUJUI</t>
+Ticked ID : DTOBL202200003;
+Status Verifikasi : 0 : Kembalikan ke Data Entry;
+Keterangan Verifikasi : INV.FIX.BEJ.011 Pembatalan dikembalikan ke Data Entry</t>
   </si>
   <si>
     <t>Username : 33372;
 Password : bni1234;
 Role : 18 - Pimpinan Kelompok Investasi;
-Ticked ID : DTOBL202200005	;
-Status Verifikasi : 0 : Kembalikan ke Data Entry;
-Keterangan Verifikasi : INV.FIX.BEJ.011 Pembatalan dikembalikan ke Data Entry</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
-  </si>
-  <si>
-    <t>DTOBL202200005</t>
+Ticket ID : DTOBL202200003;
+Status Verifikasi : 1 : Setuju;
+Keterangan Verifikasi : INV.FIX.BEJ.011 PEMBATALAN DISETUJUI</t>
   </si>
 </sst>
 </file>
@@ -542,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,11 +557,11 @@
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="9.140625" style="1"/>
     <col min="24" max="25" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
@@ -611,16 +608,16 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="102" x14ac:dyDescent="0.25">
@@ -628,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>33372</v>
@@ -655,25 +652,25 @@
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -709,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33B3AAE-605A-4DDB-BFFB-66C1AF414C99}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -727,11 +724,11 @@
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="9.140625" style="1"/>
     <col min="24" max="25" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
@@ -778,16 +775,16 @@
         <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="127.5" x14ac:dyDescent="0.25">
@@ -795,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>33372</v>
@@ -822,25 +819,25 @@
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
@@ -867,5 +864,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>